--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="901">
   <si>
     <t>anchor score</t>
   </si>
@@ -259,544 +259,544 @@
     <t>well</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>greed</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>heroes</t>
@@ -3085,7 +3085,7 @@
         <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K7">
         <v>0.8723404255319149</v>
@@ -3414,7 +3414,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <v>0.7659574468085106</v>
@@ -3614,16 +3614,16 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <v>0.7577092511013216</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>0.93</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3664,28 +3664,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L13">
+        <v>172</v>
+      </c>
+      <c r="M13">
+        <v>172</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>67</v>
-      </c>
-      <c r="M13">
-        <v>72</v>
-      </c>
-      <c r="N13">
-        <v>0.93</v>
-      </c>
-      <c r="O13">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3714,28 +3714,28 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K14">
-        <v>0.6851851851851852</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="L14">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="N14">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3764,16 +3764,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K15">
-        <v>0.6716417910447762</v>
+        <v>0.6713780918727915</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -3785,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3814,28 +3814,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="K16">
-        <v>0.6713780918727915</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3864,28 +3864,28 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3914,7 +3914,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K18">
         <v>0.6470588235294118</v>
@@ -4164,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K23">
         <v>0.5238095238095238</v>
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K24">
         <v>0.4810126582278481</v>
@@ -4264,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K25">
         <v>0.4761904761904762</v>
@@ -4314,7 +4314,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K26">
         <v>0.4736842105263158</v>
@@ -4364,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K27">
         <v>0.4720496894409938</v>
@@ -4464,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K29">
         <v>0.4688995215311005</v>
@@ -4564,7 +4564,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K31">
         <v>0.4596577017114915</v>
@@ -4614,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K32">
         <v>0.456140350877193</v>
@@ -4664,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K33">
         <v>0.4468085106382979</v>
@@ -4714,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K34">
         <v>0.4375</v>
@@ -4864,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K37">
         <v>0.4076433121019108</v>
@@ -4914,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K38">
         <v>0.4</v>
@@ -4964,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K39">
         <v>0.3966942148760331</v>
@@ -5264,7 +5264,7 @@
         <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K45">
         <v>0.3818181818181818</v>
@@ -5464,7 +5464,7 @@
         <v>289</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K49">
         <v>0.3695652173913043</v>
@@ -5514,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K50">
         <v>0.3545232273838631</v>
@@ -5564,7 +5564,7 @@
         <v>23</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K51">
         <v>0.3428571428571429</v>
@@ -5664,7 +5664,7 @@
         <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K53">
         <v>0.3382352941176471</v>
@@ -5914,7 +5914,7 @@
         <v>4</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K58">
         <v>0.3333333333333333</v>
@@ -6264,7 +6264,7 @@
         <v>18</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K65">
         <v>0.3224852071005917</v>
@@ -6414,7 +6414,7 @@
         <v>58</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K68">
         <v>0.3145539906103286</v>
@@ -6564,7 +6564,7 @@
         <v>4</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K71">
         <v>0.3055555555555556</v>
@@ -6614,7 +6614,7 @@
         <v>25</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>0.3023255813953488</v>
@@ -6793,28 +6793,28 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1791044776119403</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K76">
         <v>0.2916666666666667</v>
@@ -6843,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1666666666666667</v>
+        <v>0.15625</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -6861,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K77">
         <v>0.2916666666666667</v>
@@ -6893,13 +6893,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.15625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -6911,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K78">
         <v>0.287037037037037</v>
@@ -6943,13 +6943,13 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6961,10 +6961,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K79">
         <v>0.2865853658536585</v>
@@ -6996,22 +6996,22 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>295</v>
@@ -7043,25 +7043,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1428571428571428</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="E81">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>296</v>
@@ -7093,28 +7093,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1355932203389831</v>
+        <v>0.125</v>
       </c>
       <c r="C82">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K82">
         <v>0.2833333333333333</v>
@@ -7143,13 +7143,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>297</v>
@@ -7196,10 +7196,10 @@
         <v>0.125</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -7211,10 +7211,10 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K84">
         <v>0.2795698924731183</v>
@@ -7249,22 +7249,22 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>7</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K85">
         <v>0.2792792792792793</v>
@@ -7293,25 +7293,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>298</v>
@@ -7343,28 +7343,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E87">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F87">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K87">
         <v>0.2745762711864407</v>
@@ -7393,25 +7393,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E88">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>299</v>
@@ -7443,28 +7443,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.12</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K89">
         <v>0.2721311475409836</v>
@@ -7493,25 +7493,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1176470588235294</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>300</v>
@@ -7543,28 +7543,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K91">
         <v>0.2698768197088466</v>
@@ -7593,25 +7593,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C92">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F92">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>301</v>
@@ -7646,25 +7646,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K93">
         <v>0.2671232876712329</v>
@@ -7696,22 +7696,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>302</v>
@@ -7743,13 +7743,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>303</v>
@@ -7793,7 +7793,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>304</v>
@@ -7846,25 +7846,25 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K97">
         <v>0.2592592592592592</v>
@@ -7893,13 +7893,13 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>305</v>
@@ -7943,25 +7943,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1052631578947368</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F99">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>306</v>
@@ -7993,7 +7993,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8011,10 +8011,10 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K100">
         <v>0.2558139534883721</v>
@@ -8043,28 +8043,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.09523809523809523</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K101">
         <v>0.25</v>
@@ -8093,7 +8093,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>307</v>
@@ -8143,25 +8143,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>308</v>
@@ -8249,16 +8249,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>11</v>
@@ -8343,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>312</v>
@@ -8393,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>313</v>
@@ -8446,22 +8446,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>314</v>
@@ -8493,13 +8493,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.07692307692307693</v>
+        <v>0.075</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8511,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K110">
         <v>0.2464788732394366</v>
@@ -8543,28 +8543,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.07692307692307693</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F111">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K111">
         <v>0.2461538461538462</v>
@@ -8593,13 +8593,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.075</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>315</v>
@@ -8643,28 +8643,28 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.07368421052631578</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K113">
         <v>0.24</v>
@@ -8696,22 +8696,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>316</v>
@@ -8749,13 +8749,13 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="E115">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F115">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
@@ -8793,25 +8793,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E116">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F116">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>318</v>
@@ -8843,25 +8843,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>319</v>
@@ -8899,13 +8899,13 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F118">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -8914,7 +8914,7 @@
         <v>14</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K118">
         <v>0.2336691582710432</v>
@@ -8943,13 +8943,13 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>320</v>
@@ -8993,25 +8993,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E120">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>321</v>
@@ -9043,25 +9043,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>322</v>
@@ -9146,22 +9146,22 @@
         <v>0.0625</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E123">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F123">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>324</v>
@@ -9243,28 +9243,28 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K125">
         <v>0.23</v>
@@ -9293,7 +9293,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>326</v>
@@ -9343,25 +9343,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.05882352941176471</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>327</v>
@@ -9393,7 +9393,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9411,10 +9411,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K128">
         <v>0.2244318181818182</v>
@@ -9443,25 +9443,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.05633802816901409</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>0.13</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>328</v>
@@ -9499,16 +9499,16 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
         <v>17</v>
@@ -9546,22 +9546,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E131">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F131">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>330</v>
@@ -9593,25 +9593,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E132">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F132">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>331</v>
@@ -9643,25 +9643,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D133">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E133">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F133">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>332</v>
@@ -9699,13 +9699,13 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="E134">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F134">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
@@ -9746,22 +9746,22 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C135">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>334</v>
@@ -9793,28 +9793,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E136">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F136">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K136">
         <v>0.2207792207792208</v>
@@ -9843,7 +9843,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K137">
         <v>0.219047619047619</v>
@@ -9893,28 +9893,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="E138">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F138">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K138">
         <v>0.21875</v>
@@ -9999,22 +9999,22 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>19</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K140">
         <v>0.2149200710479574</v>
@@ -10043,25 +10043,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.05</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>336</v>
@@ -10093,25 +10093,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>337</v>
@@ -10143,28 +10143,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.04938271604938271</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E143">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F143">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K143">
         <v>0.2142857142857143</v>
@@ -10193,25 +10193,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D144">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>338</v>
@@ -10243,25 +10243,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.04761904761904762</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="C145">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D145">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="E145">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F145">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>339</v>
@@ -10293,25 +10293,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>340</v>
@@ -10343,25 +10343,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.04583333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E147">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F147">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>229</v>
+        <v>22</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>341</v>
@@ -10399,16 +10399,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
         <v>22</v>
@@ -10449,16 +10449,16 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
         <v>22</v>
@@ -10493,25 +10493,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E150">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F150">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>344</v>
@@ -10543,25 +10543,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>345</v>
@@ -10596,22 +10596,22 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>346</v>
@@ -10643,7 +10643,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -10661,7 +10661,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>347</v>
@@ -10693,28 +10693,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E154">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F154">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K154">
         <v>0.2</v>
@@ -10743,25 +10743,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04081632653061224</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D155">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="E155">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="F155">
-        <v>0.18</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>348</v>
@@ -10793,25 +10793,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E156">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F156">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>349</v>
@@ -10843,25 +10843,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0391304347826087</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C157">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>350</v>
@@ -10893,25 +10893,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>351</v>
@@ -10949,16 +10949,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>26</v>
@@ -10993,7 +10993,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11011,7 +11011,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>353</v>
@@ -11043,25 +11043,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>354</v>
@@ -11143,25 +11143,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>76</v>
@@ -11193,25 +11193,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>356</v>
@@ -11243,28 +11243,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E165">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F165">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K165">
         <v>0.196969696969697</v>
@@ -11293,28 +11293,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.03333333333333333</v>
+        <v>0.03125</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K166">
         <v>0.1965811965811966</v>
@@ -11343,25 +11343,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F167">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>357</v>
@@ -11393,25 +11393,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E168">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F168">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>358</v>
@@ -11443,25 +11443,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.03125</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>359</v>
@@ -11493,25 +11493,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E170">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F170">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>360</v>
@@ -11543,28 +11543,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.03012048192771084</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K171">
         <v>0.1904761904761905</v>
@@ -11593,25 +11593,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.02941176470588235</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E172">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="F172">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>361</v>
@@ -11643,28 +11643,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E173">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F173">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K173">
         <v>0.1884735202492212</v>
@@ -11693,25 +11693,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.02803738317757009</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E174">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="F174">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>362</v>
@@ -11743,25 +11743,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.02777777777777778</v>
+        <v>0.02723735408560311</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D175">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E175">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>363</v>
@@ -11793,25 +11793,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.02777777777777778</v>
+        <v>0.02583025830258303</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="E176">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F176">
-        <v>0.25</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>364</v>
@@ -11843,25 +11843,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.02723735408560311</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>365</v>
@@ -11893,25 +11893,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.02583025830258303</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>366</v>
@@ -11949,16 +11949,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
         <v>38</v>
@@ -11993,25 +11993,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>368</v>
@@ -12043,25 +12043,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>369</v>
@@ -12093,7 +12093,7 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -12111,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>370</v>
@@ -12143,25 +12143,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E183">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F183">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>371</v>
@@ -12193,25 +12193,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>372</v>
@@ -12243,25 +12243,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E185">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F185">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>373</v>
@@ -12293,25 +12293,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E186">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F186">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>374</v>
@@ -12343,25 +12343,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02298850574712644</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="E187">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F187">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>375</v>
@@ -12393,25 +12393,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E188">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F188">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>376</v>
@@ -12443,25 +12443,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E189">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F189">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>377</v>
@@ -12493,25 +12493,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>378</v>
@@ -12543,25 +12543,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E191">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F191">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>379</v>
@@ -12593,28 +12593,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02127659574468085</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K192">
         <v>0.1764705882352941</v>
@@ -12643,25 +12643,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>380</v>
@@ -12693,25 +12693,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02105263157894737</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>381</v>
@@ -12743,25 +12743,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E195">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="F195">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>382</v>
@@ -12793,13 +12793,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E196">
         <v>0.9399999999999999</v>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>383</v>
@@ -12843,25 +12843,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0202020202020202</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E197">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>384</v>
@@ -12893,25 +12893,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>385</v>
@@ -12943,25 +12943,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E199">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F199">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>386</v>
@@ -12993,25 +12993,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>387</v>
@@ -13043,25 +13043,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.01923076923076923</v>
+        <v>0.01857399640503295</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D201">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>51</v>
+        <v>1638</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>388</v>
@@ -13093,28 +13093,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E202">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F202">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K202">
         <v>0.1666666666666667</v>
@@ -13143,25 +13143,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.01857399640503295</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C203">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>505</v>
+        <v>5</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>1638</v>
+        <v>54</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>389</v>
@@ -13193,25 +13193,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E204">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F204">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>390</v>
@@ -13243,25 +13243,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.01818181818181818</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>391</v>
@@ -13293,25 +13293,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.01818181818181818</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>392</v>
@@ -13343,25 +13343,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.01754385964912281</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="E207">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F207">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>393</v>
@@ -13393,25 +13393,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.01639344262295082</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>394</v>
@@ -13443,25 +13443,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.01587301587301587</v>
+        <v>0.015625</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E209">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F209">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>395</v>
@@ -13493,25 +13493,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.01570680628272251</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>396</v>
@@ -13543,25 +13543,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.015625</v>
+        <v>0.01512287334593573</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="E211">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>63</v>
+        <v>521</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>397</v>
@@ -13593,25 +13593,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E212">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>398</v>
@@ -13643,25 +13643,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.01512287334593573</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>521</v>
+        <v>642</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>399</v>
@@ -13693,25 +13693,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>400</v>
@@ -13743,25 +13743,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.01382488479262673</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>642</v>
+        <v>72</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>401</v>
@@ -13793,25 +13793,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0136986301369863</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E216">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F216">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>402</v>
@@ -13843,25 +13843,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0136986301369863</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>403</v>
@@ -13893,13 +13893,13 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01351351351351351</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E218">
         <v>0.97</v>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>404</v>
@@ -13943,25 +13943,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01342281879194631</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
         <v>2</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H219">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>405</v>
@@ -13993,25 +13993,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01333333333333333</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E220">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F220">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>406</v>
@@ -14043,25 +14043,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01333333333333333</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E221">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F221">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>407</v>
@@ -14093,25 +14093,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0131578947368421</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E222">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>408</v>
@@ -14143,25 +14143,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01298701298701299</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E223">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F223">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>409</v>
@@ -14193,13 +14193,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01282051282051282</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D224">
-        <v>24</v>
+        <v>749</v>
       </c>
       <c r="E224">
         <v>0.96</v>
@@ -14211,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>77</v>
+        <v>2358</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>410</v>
@@ -14243,25 +14243,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E225">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F225">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>411</v>
@@ -14293,25 +14293,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01256281407035176</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="C226">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>749</v>
+        <v>23</v>
       </c>
       <c r="E226">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F226">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>2358</v>
+        <v>162</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>412</v>
@@ -14343,13 +14343,13 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01234567901234568</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D227">
-        <v>32</v>
+        <v>249</v>
       </c>
       <c r="E227">
         <v>0.97</v>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>80</v>
+        <v>652</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>413</v>
@@ -14393,25 +14393,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01219512195121951</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E228">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F228">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>414</v>
@@ -14443,25 +14443,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01212121212121212</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C229">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>652</v>
+        <v>86</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>415</v>
@@ -14493,28 +14493,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01204819277108434</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K230">
         <v>0.1636363636363636</v>
@@ -14543,28 +14543,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01149425287356322</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K231">
         <v>0.163265306122449</v>
@@ -14593,28 +14593,28 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01111111111111111</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>89</v>
+        <v>724</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K232">
         <v>0.1612903225806452</v>
@@ -14643,28 +14643,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E233">
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="F233">
-        <v>0.02000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K233">
         <v>0.1607142857142857</v>
@@ -14693,25 +14693,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01092896174863388</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C234">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>724</v>
+        <v>96</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>416</v>
@@ -14743,28 +14743,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01041666666666667</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K235">
         <v>0.1588785046728972</v>
@@ -14793,25 +14793,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01030927835051546</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>417</v>
@@ -14843,25 +14843,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.009345794392523364</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E237">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F237">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>418</v>
@@ -14893,13 +14893,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.009259259259259259</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D238">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="E238">
         <v>0.97</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>107</v>
+        <v>442</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>419</v>
@@ -14943,28 +14943,28 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.009259259259259259</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E239">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F239">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K239">
         <v>0.1571594877764843</v>
@@ -14993,25 +14993,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.008968609865470852</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="E240">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F240">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>442</v>
+        <v>117</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>420</v>
@@ -15043,28 +15043,28 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.008620689655172414</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E241">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F241">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K241">
         <v>0.1549295774647887</v>
@@ -15093,28 +15093,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.008474576271186441</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="E242">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F242">
-        <v>0.08999999999999997</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K242">
         <v>0.1544117647058824</v>
@@ -15143,28 +15143,28 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.008474576271186441</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E243">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F243">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K243">
         <v>0.1538461538461539</v>
@@ -15193,25 +15193,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.006802721088435374</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>194</v>
+        <v>9</v>
       </c>
       <c r="E244">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F244">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>421</v>
@@ -15243,25 +15243,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.006622516556291391</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E245">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F245">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>422</v>
@@ -15293,7 +15293,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.00641025641025641</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15311,7 +15311,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>155</v>
+        <v>218</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>423</v>
@@ -15343,25 +15343,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.006060606060606061</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D247">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E247">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F247">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>164</v>
+        <v>948</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>424</v>
@@ -15393,25 +15393,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0045662100456621</v>
+        <v>0.003795066413662239</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E248">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F248">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>218</v>
+        <v>525</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>7</v>
@@ -15443,25 +15443,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.004201680672268907</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="C249">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>948</v>
+        <v>287</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>425</v>
@@ -15493,25 +15493,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.003795066413662239</v>
+        <v>0.002697841726618705</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E250">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F250">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>525</v>
+        <v>1109</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>426</v>
@@ -15543,25 +15543,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.003472222222222222</v>
+        <v>0.002680965147453083</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>287</v>
+        <v>372</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>427</v>
@@ -15593,25 +15593,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002697841726618705</v>
+        <v>0.002159827213822894</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E252">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F252">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>1109</v>
+        <v>462</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>428</v>
@@ -15643,28 +15643,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002680965147453083</v>
+        <v>0.001646903820816864</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>372</v>
+        <v>3031</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K253">
         <v>0.1481481481481481</v>
@@ -15689,30 +15689,6 @@
       </c>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0.002159827213822894</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254">
-        <v>0.5</v>
-      </c>
-      <c r="F254">
-        <v>0.5</v>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254">
-        <v>462</v>
-      </c>
       <c r="J254" s="1" t="s">
         <v>429</v>
       </c>
@@ -15739,32 +15715,8 @@
       </c>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0.001646903820816864</v>
-      </c>
-      <c r="C255">
-        <v>5</v>
-      </c>
-      <c r="D255">
-        <v>170</v>
-      </c>
-      <c r="E255">
-        <v>0.97</v>
-      </c>
-      <c r="F255">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255">
-        <v>3031</v>
-      </c>
       <c r="J255" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K255">
         <v>0.1477272727272727</v>
@@ -15790,7 +15742,7 @@
     </row>
     <row r="256" spans="1:17">
       <c r="J256" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K256">
         <v>0.1463414634146341</v>
@@ -15816,7 +15768,7 @@
     </row>
     <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K257">
         <v>0.1451612903225807</v>
@@ -17012,7 +16964,7 @@
     </row>
     <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K303">
         <v>0.1333333333333333</v>
@@ -17038,7 +16990,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K304">
         <v>0.1333333333333333</v>
@@ -17090,7 +17042,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K306">
         <v>0.131578947368421</v>
@@ -17220,7 +17172,7 @@
     </row>
     <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K311">
         <v>0.1290322580645161</v>
@@ -18260,7 +18212,7 @@
     </row>
     <row r="351" spans="10:17">
       <c r="J351" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K351">
         <v>0.1228070175438596</v>
@@ -18650,7 +18602,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K366">
         <v>0.1153846153846154</v>
@@ -18702,7 +18654,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K368">
         <v>0.1147540983606557</v>
@@ -18780,7 +18732,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K371">
         <v>0.1136363636363636</v>
@@ -19014,7 +18966,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K380">
         <v>0.1111111111111111</v>
@@ -19404,7 +19356,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K395">
         <v>0.1111111111111111</v>
@@ -19664,7 +19616,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K405">
         <v>0.1052631578947368</v>
@@ -20340,7 +20292,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K431">
         <v>0.09523809523809523</v>
@@ -20990,7 +20942,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K456">
         <v>0.08928571428571429</v>
@@ -21120,7 +21072,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K461">
         <v>0.0851063829787234</v>
@@ -21146,7 +21098,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K462">
         <v>0.08490566037735849</v>
@@ -21614,7 +21566,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K480">
         <v>0.08</v>
@@ -21718,7 +21670,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K484">
         <v>0.07894736842105263</v>
@@ -21770,7 +21722,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K486">
         <v>0.07874015748031496</v>
@@ -22290,7 +22242,7 @@
     </row>
     <row r="506" spans="10:17">
       <c r="J506" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K506">
         <v>0.07272727272727272</v>
@@ -22316,7 +22268,7 @@
     </row>
     <row r="507" spans="10:17">
       <c r="J507" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K507">
         <v>0.07246376811594203</v>
@@ -22914,7 +22866,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K530">
         <v>0.06896551724137931</v>
@@ -22992,7 +22944,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K533">
         <v>0.06818181818181818</v>
@@ -23226,7 +23178,7 @@
     </row>
     <row r="542" spans="10:17">
       <c r="J542" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K542">
         <v>0.06666666666666667</v>
@@ -23330,7 +23282,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K546">
         <v>0.06666666666666667</v>
@@ -23564,7 +23516,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K555">
         <v>0.06493506493506493</v>
@@ -23694,7 +23646,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K560">
         <v>0.06382978723404255</v>
@@ -23720,7 +23672,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K561">
         <v>0.06382978723404255</v>
@@ -25124,7 +25076,7 @@
     </row>
     <row r="615" spans="10:17">
       <c r="J615" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K615">
         <v>0.0516270337922403</v>
@@ -25202,7 +25154,7 @@
     </row>
     <row r="618" spans="10:17">
       <c r="J618" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K618">
         <v>0.05</v>
@@ -25384,7 +25336,7 @@
     </row>
     <row r="625" spans="10:17">
       <c r="J625" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K625">
         <v>0.049079754601227</v>
@@ -26060,7 +26012,7 @@
     </row>
     <row r="651" spans="10:17">
       <c r="J651" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K651">
         <v>0.04347826086956522</v>
@@ -26294,7 +26246,7 @@
     </row>
     <row r="660" spans="10:17">
       <c r="J660" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K660">
         <v>0.04231433506044905</v>
@@ -26476,7 +26428,7 @@
     </row>
     <row r="667" spans="10:17">
       <c r="J667" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K667">
         <v>0.04081632653061224</v>
@@ -26502,7 +26454,7 @@
     </row>
     <row r="668" spans="10:17">
       <c r="J668" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K668">
         <v>0.04013377926421405</v>
@@ -26814,7 +26766,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K680">
         <v>0.03703703703703703</v>
@@ -26918,7 +26870,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K684">
         <v>0.03571428571428571</v>
@@ -26944,7 +26896,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K685">
         <v>0.03571428571428571</v>
@@ -26996,7 +26948,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K687">
         <v>0.03539823008849557</v>
@@ -27022,7 +26974,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K688">
         <v>0.03529411764705882</v>
@@ -27152,7 +27104,7 @@
     </row>
     <row r="693" spans="10:17">
       <c r="J693" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K693">
         <v>0.03448275862068965</v>
@@ -27256,7 +27208,7 @@
     </row>
     <row r="697" spans="10:17">
       <c r="J697" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K697">
         <v>0.03314917127071823</v>
@@ -27386,7 +27338,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K702">
         <v>0.03125</v>
@@ -27412,7 +27364,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K703">
         <v>0.03125</v>
@@ -27464,7 +27416,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K705">
         <v>0.03076923076923077</v>
@@ -27490,7 +27442,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K706">
         <v>0.03061224489795918</v>
@@ -27542,7 +27494,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K708">
         <v>0.0303030303030303</v>
@@ -28010,7 +27962,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K726">
         <v>0.02564102564102564</v>
@@ -28556,7 +28508,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K747">
         <v>0.02040816326530612</v>
@@ -28868,7 +28820,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K759">
         <v>0.01659751037344398</v>
@@ -29076,7 +29028,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K767">
         <v>0.01333333333333333</v>
@@ -29414,7 +29366,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K780">
         <v>0.002159827213822894</v>
